--- a/carpetas/plantillas/plantillaCarpetasNucs.xlsx
+++ b/carpetas/plantillas/plantillaCarpetasNucs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.2.27\xampp\htdocs\sire\carpetas\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.2.27\xampp\htdocs\sireNucCarp\carpetas\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D75B93-8F6E-49B5-9308-AA15A0898B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865EE189-28B4-4BB2-A6F4-0E7BD4B8C7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NUC</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>MP</t>
+  </si>
+  <si>
+    <t>FISCALIA</t>
+  </si>
+  <si>
+    <t>DETENIDO</t>
   </si>
 </sst>
 </file>
@@ -92,9 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,35 +383,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" customWidth="1"/>
-    <col min="6" max="6" width="83.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26" style="3" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="8" width="83.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
